--- a/●회계/동아리원 회비.xlsx
+++ b/●회계/동아리원 회비.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kyungheeUNIV\●회계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC6AE8-4158-40F3-B086-EA28CE4C54AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4F230B-C341-41F6-984A-7D58681A65EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="159">
   <si>
     <t>학번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -637,7 +637,10 @@
     <t>4-3이상</t>
   </si>
   <si>
-    <t>?보류</t>
+    <t>4-4이상</t>
+  </si>
+  <si>
+    <t>아직안냄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,27 +1103,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1527,6 +1509,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1849,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P83" sqref="P83"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U106" sqref="U106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1863,7 +1866,7 @@
     <col min="14" max="14" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,8 +1897,20 @@
       <c r="L1" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q1">
+        <v>3</v>
+      </c>
+      <c r="R1">
+        <v>4</v>
+      </c>
+      <c r="S1">
+        <v>5</v>
+      </c>
+      <c r="T1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>17</v>
       </c>
@@ -1944,8 +1959,11 @@
       <c r="S2" s="33" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>18</v>
       </c>
@@ -1994,8 +2012,11 @@
       <c r="S3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>18</v>
       </c>
@@ -2044,8 +2065,11 @@
       <c r="S4" s="33" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>18</v>
       </c>
@@ -2094,8 +2118,11 @@
       <c r="S5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>18</v>
       </c>
@@ -2144,8 +2171,11 @@
       <c r="S6" s="33" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>18</v>
       </c>
@@ -2194,8 +2224,11 @@
       <c r="S7">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>18</v>
       </c>
@@ -2244,8 +2277,11 @@
       <c r="S8" s="33" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>18</v>
       </c>
@@ -2294,8 +2330,11 @@
       <c r="S9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>18</v>
       </c>
@@ -2336,8 +2375,11 @@
       <c r="S10" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -2386,8 +2428,11 @@
       <c r="S11">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>18</v>
       </c>
@@ -2436,8 +2481,11 @@
       <c r="S12" s="35" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>18</v>
       </c>
@@ -2486,8 +2534,11 @@
       <c r="S13">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>18</v>
       </c>
@@ -2536,8 +2587,11 @@
       <c r="S14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>18</v>
       </c>
@@ -2586,8 +2640,11 @@
       <c r="S15">
         <v>10000</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>19</v>
       </c>
@@ -2628,8 +2685,11 @@
       <c r="S16" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2670,8 +2730,11 @@
       <c r="S17" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>19</v>
       </c>
@@ -2720,8 +2783,11 @@
       <c r="S18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -2770,8 +2836,11 @@
       <c r="S19" s="33" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2820,8 +2889,11 @@
       <c r="S20" s="33" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -2870,8 +2942,11 @@
       <c r="S21">
         <v>10000</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -2920,8 +2995,11 @@
       <c r="S22" s="33" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -2970,8 +3048,11 @@
       <c r="S23">
         <v>10000</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -3020,8 +3101,11 @@
       <c r="S24">
         <v>10000</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -3070,8 +3154,11 @@
       <c r="S25" s="33" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>19</v>
       </c>
@@ -3120,8 +3207,11 @@
       <c r="S26" s="32" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>19</v>
       </c>
@@ -3170,8 +3260,11 @@
       <c r="S27">
         <v>10000</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>19</v>
       </c>
@@ -3212,8 +3305,11 @@
       <c r="S28" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>19</v>
       </c>
@@ -3262,8 +3358,11 @@
       <c r="S29" s="32" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>19</v>
       </c>
@@ -3312,8 +3411,11 @@
       <c r="S30">
         <v>10000</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>19</v>
       </c>
@@ -3362,8 +3464,11 @@
       <c r="S31">
         <v>10000</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>19</v>
       </c>
@@ -3412,8 +3517,11 @@
       <c r="S32">
         <v>10000</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>19</v>
       </c>
@@ -3462,8 +3570,11 @@
       <c r="S33">
         <v>10000</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>19</v>
       </c>
@@ -3512,8 +3623,11 @@
       <c r="S34">
         <v>10000</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>19</v>
       </c>
@@ -3562,8 +3676,11 @@
       <c r="S35">
         <v>10000</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>19</v>
       </c>
@@ -3612,8 +3729,11 @@
       <c r="S36" s="35" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>19</v>
       </c>
@@ -3662,8 +3782,11 @@
       <c r="S37">
         <v>10000</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>19</v>
       </c>
@@ -3712,8 +3835,11 @@
       <c r="S38">
         <v>10000</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>19</v>
       </c>
@@ -3762,8 +3888,11 @@
       <c r="S39">
         <v>10000</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T39">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>19</v>
       </c>
@@ -3812,8 +3941,11 @@
       <c r="S40">
         <v>10000</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>20</v>
       </c>
@@ -3862,8 +3994,11 @@
       <c r="S41">
         <v>10000</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>20</v>
       </c>
@@ -3912,8 +4047,11 @@
       <c r="S42">
         <v>10000</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>20</v>
       </c>
@@ -3962,8 +4100,11 @@
       <c r="S43">
         <v>10000</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>20</v>
       </c>
@@ -4004,8 +4145,11 @@
       <c r="S44" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>20</v>
       </c>
@@ -4054,8 +4198,11 @@
       <c r="S45">
         <v>10000</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>20</v>
       </c>
@@ -4104,8 +4251,11 @@
       <c r="S46">
         <v>10000</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>20</v>
       </c>
@@ -4146,8 +4296,11 @@
       <c r="S47" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T47" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>20</v>
       </c>
@@ -4196,8 +4349,11 @@
       <c r="S48">
         <v>10000</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>20</v>
       </c>
@@ -4246,8 +4402,11 @@
       <c r="S49">
         <v>10000</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>20</v>
       </c>
@@ -4296,8 +4455,11 @@
       <c r="S50">
         <v>10000</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>20</v>
       </c>
@@ -4346,8 +4508,11 @@
       <c r="S51">
         <v>10000</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>20</v>
       </c>
@@ -4396,8 +4561,11 @@
       <c r="S52">
         <v>10000</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>20</v>
       </c>
@@ -4438,8 +4606,11 @@
       <c r="S53" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T53" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>20</v>
       </c>
@@ -4488,8 +4659,11 @@
       <c r="S54">
         <v>10000</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>20</v>
       </c>
@@ -4538,8 +4712,11 @@
       <c r="S55">
         <v>10000</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4568,8 +4745,11 @@
       <c r="S56">
         <v>10000</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T56">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>20</v>
       </c>
@@ -4618,8 +4798,11 @@
       <c r="S57">
         <v>10000</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>21</v>
       </c>
@@ -4668,8 +4851,11 @@
       <c r="S58" s="36">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T58">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>21</v>
       </c>
@@ -4710,8 +4896,11 @@
       <c r="S59" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T59" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>21</v>
       </c>
@@ -4760,8 +4949,11 @@
       <c r="S60" s="36">
         <v>10000</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>21</v>
       </c>
@@ -4802,8 +4994,11 @@
       <c r="S61" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T61" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>21</v>
       </c>
@@ -4844,8 +5039,11 @@
       <c r="S62" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T62" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>21</v>
       </c>
@@ -4894,8 +5092,11 @@
       <c r="S63" s="36">
         <v>10000</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T63" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>21</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="S64">
         <v>10000</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>21</v>
       </c>
@@ -4994,8 +5198,11 @@
       <c r="S65">
         <v>10000</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>21</v>
       </c>
@@ -5044,8 +5251,11 @@
       <c r="S66">
         <v>10000</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>21</v>
       </c>
@@ -5094,8 +5304,11 @@
       <c r="S67">
         <v>10000</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>21</v>
       </c>
@@ -5144,8 +5357,11 @@
       <c r="S68">
         <v>10000</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>21</v>
       </c>
@@ -5186,8 +5402,11 @@
       <c r="S69" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T69" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>21</v>
       </c>
@@ -5236,8 +5455,11 @@
       <c r="S70" s="36">
         <v>10000</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T70" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>21</v>
       </c>
@@ -5274,8 +5496,11 @@
       <c r="S71" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T71" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>21</v>
       </c>
@@ -5324,8 +5549,11 @@
       <c r="S72" s="36">
         <v>10000</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T72" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>21</v>
       </c>
@@ -5366,8 +5594,11 @@
       <c r="S73" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T73" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>21</v>
       </c>
@@ -5416,8 +5647,11 @@
       <c r="S74" s="36">
         <v>10000</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T74" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>21</v>
       </c>
@@ -5458,8 +5692,11 @@
       <c r="S75" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T75" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>21</v>
       </c>
@@ -5500,8 +5737,11 @@
       <c r="S76" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T76" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>21</v>
       </c>
@@ -5538,8 +5778,11 @@
       <c r="S77" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T77" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
         <v>21</v>
       </c>
@@ -5580,8 +5823,11 @@
       <c r="S78" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T78" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>22</v>
       </c>
@@ -5630,8 +5876,11 @@
       <c r="S79">
         <v>10000</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T79">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>22</v>
       </c>
@@ -5680,8 +5929,11 @@
       <c r="S80">
         <v>10000</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T80">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>22</v>
       </c>
@@ -5722,8 +5974,11 @@
       <c r="S81" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T81" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>22</v>
       </c>
@@ -5772,8 +6027,11 @@
       <c r="S82">
         <v>10000</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T82">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>22</v>
       </c>
@@ -5819,11 +6077,14 @@
       <c r="R83">
         <v>10000</v>
       </c>
-      <c r="S83" s="37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S83" s="37">
+        <v>10000</v>
+      </c>
+      <c r="T83">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>22</v>
       </c>
@@ -5872,8 +6133,11 @@
       <c r="S84">
         <v>10000</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T84">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>22</v>
       </c>
@@ -5914,8 +6178,11 @@
       <c r="S85" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T85" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>22</v>
       </c>
@@ -5964,8 +6231,11 @@
       <c r="S86">
         <v>10000</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T86" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>22</v>
       </c>
@@ -6006,8 +6276,11 @@
       <c r="S87" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T87" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>22</v>
       </c>
@@ -6048,8 +6321,11 @@
       <c r="S88" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T88" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>22</v>
       </c>
@@ -6098,8 +6374,11 @@
       <c r="S89" s="32" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T89" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>22</v>
       </c>
@@ -6148,8 +6427,11 @@
       <c r="S90">
         <v>10000</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T90" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>22</v>
       </c>
@@ -6190,8 +6472,11 @@
       <c r="S91" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T91" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9">
         <v>22</v>
       </c>
@@ -6240,8 +6525,11 @@
       <c r="S92">
         <v>10000</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T92">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>23</v>
       </c>
@@ -6290,8 +6578,11 @@
       <c r="S93">
         <v>10000</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T93">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>23</v>
       </c>
@@ -6340,8 +6631,11 @@
       <c r="S94">
         <v>10000</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T94">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>23</v>
       </c>
@@ -6390,8 +6684,11 @@
       <c r="S95">
         <v>10000</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T95">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>23</v>
       </c>
@@ -6440,8 +6737,11 @@
       <c r="S96">
         <v>10000</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T96">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>23</v>
       </c>
@@ -6490,8 +6790,11 @@
       <c r="S97">
         <v>10000</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T97">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>23</v>
       </c>
@@ -6540,8 +6843,11 @@
       <c r="S98">
         <v>10000</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T98">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>23</v>
       </c>
@@ -6590,8 +6896,11 @@
       <c r="S99">
         <v>10000</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T99">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>23</v>
       </c>
@@ -6640,8 +6949,11 @@
       <c r="S100">
         <v>10000</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T100">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>23</v>
       </c>
@@ -6690,8 +7002,11 @@
       <c r="S101">
         <v>10000</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T101">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>23</v>
       </c>
@@ -6740,8 +7055,11 @@
       <c r="S102">
         <v>10000</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T102">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>23</v>
       </c>
@@ -6790,8 +7108,11 @@
       <c r="S103">
         <v>10000</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T103">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>23</v>
       </c>
@@ -6840,8 +7161,11 @@
       <c r="S104">
         <v>10000</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T104">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>23</v>
       </c>
@@ -6890,8 +7214,11 @@
       <c r="S105">
         <v>10000</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T105">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>23</v>
       </c>
@@ -6940,8 +7267,11 @@
       <c r="S106">
         <v>10000</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T106">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>23</v>
       </c>
@@ -6990,8 +7320,11 @@
       <c r="S107">
         <v>10000</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T107">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>23</v>
       </c>
@@ -7040,8 +7373,11 @@
       <c r="S108">
         <v>10000</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T108">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="17">
         <v>23</v>
       </c>
@@ -7090,8 +7426,11 @@
       <c r="S109">
         <v>10000</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T109">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K110" s="29" t="s">
         <v>149</v>
       </c>
@@ -7113,19 +7452,26 @@
       <c r="S110">
         <v>10000</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T110">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q111">
         <f>SUM(Q2:Q110)</f>
         <v>730000</v>
       </c>
       <c r="R111">
-        <f t="shared" ref="R111:S111" si="0">SUM(R2:R110)</f>
+        <f t="shared" ref="R111:T111" si="0">SUM(R2:R110)</f>
         <v>740000</v>
       </c>
       <c r="S111">
         <f t="shared" si="0"/>
-        <v>730000</v>
+        <v>740000</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="0"/>
+        <v>720000</v>
       </c>
     </row>
   </sheetData>
@@ -7161,251 +7507,251 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K92 K96:K110">
-    <cfRule type="expression" dxfId="2" priority="126">
+    <cfRule type="expression" dxfId="62" priority="126">
       <formula>$F10="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93">
-    <cfRule type="expression" dxfId="62" priority="130">
+    <cfRule type="expression" dxfId="61" priority="130">
       <formula>$I90="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94:K95">
-    <cfRule type="expression" dxfId="61" priority="129">
+    <cfRule type="expression" dxfId="60" priority="129">
       <formula>$I92="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L110">
-    <cfRule type="expression" dxfId="1" priority="122">
+    <cfRule type="expression" dxfId="59" priority="122">
       <formula>$G2+$H2&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L110">
-    <cfRule type="containsText" dxfId="0" priority="121" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="58" priority="121" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",K10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L110">
-    <cfRule type="expression" dxfId="60" priority="120">
+    <cfRule type="expression" dxfId="57" priority="120">
       <formula>$F10="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M109">
-    <cfRule type="expression" dxfId="59" priority="117">
+    <cfRule type="expression" dxfId="56" priority="117">
       <formula>$F10="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:N109">
-    <cfRule type="expression" dxfId="58" priority="114">
+    <cfRule type="expression" dxfId="55" priority="114">
       <formula>$G2+$H2&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:N109">
-    <cfRule type="containsText" dxfId="57" priority="113" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="54" priority="113" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",M10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N92 N96:N109">
-    <cfRule type="expression" dxfId="56" priority="112">
+    <cfRule type="expression" dxfId="53" priority="112">
       <formula>$F10="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N93">
-    <cfRule type="expression" dxfId="55" priority="116">
+    <cfRule type="expression" dxfId="52" priority="116">
       <formula>$I90="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N94:N95">
-    <cfRule type="expression" dxfId="54" priority="115">
+    <cfRule type="expression" dxfId="51" priority="115">
       <formula>$I92="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:P110">
-    <cfRule type="expression" dxfId="53" priority="108">
+    <cfRule type="expression" dxfId="50" priority="108">
       <formula>$G2+$H2&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:P110">
-    <cfRule type="containsText" dxfId="52" priority="107" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="49" priority="107" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",O10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="106">
+    <cfRule type="expression" dxfId="48" priority="106">
       <formula>$F10="X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10:S10">
-    <cfRule type="expression" dxfId="50" priority="31">
+  <conditionalFormatting sqref="Q10:T10">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>$F10="X"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="32" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="46" priority="32" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="33">
+    <cfRule type="expression" dxfId="45" priority="33">
       <formula>$G10+$H10&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16:S17">
-    <cfRule type="expression" dxfId="47" priority="19">
+  <conditionalFormatting sqref="Q16:T17">
+    <cfRule type="expression" dxfId="44" priority="19">
       <formula>$F16="X"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="20" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="43" priority="20" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="21">
+    <cfRule type="expression" dxfId="42" priority="21">
       <formula>$G16+$H16&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="containsText" dxfId="44" priority="38" operator="containsText" text="X">
+  <conditionalFormatting sqref="Q28:T28">
+    <cfRule type="containsText" dxfId="41" priority="38" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>$F28="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
+    <cfRule type="expression" dxfId="39" priority="39">
       <formula>$G28+$H28&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q44:S44">
-    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="X">
+  <conditionalFormatting sqref="Q44:T44">
+    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$G44+$H44&gt;=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>$F44="X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q47:S47">
-    <cfRule type="expression" dxfId="38" priority="7">
+  <conditionalFormatting sqref="Q47:T47">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>$F47="X"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>$G47+$H47&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q53:S53">
-    <cfRule type="containsText" dxfId="35" priority="14" operator="containsText" text="X">
+  <conditionalFormatting sqref="Q53:T53">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>$G53+$H53&gt;=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="13">
+    <cfRule type="expression" dxfId="30" priority="13">
       <formula>$F53="X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q59:S59">
-    <cfRule type="expression" dxfId="32" priority="49">
+  <conditionalFormatting sqref="Q59:T59">
+    <cfRule type="expression" dxfId="29" priority="49">
       <formula>$F59="X"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="50" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="51">
+    <cfRule type="expression" dxfId="27" priority="51">
       <formula>$G59+$H59&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q61:S62">
-    <cfRule type="expression" dxfId="29" priority="43">
+  <conditionalFormatting sqref="Q61:T62">
+    <cfRule type="expression" dxfId="26" priority="43">
       <formula>$F61="X"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="44" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="25" priority="44" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q61)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="45">
+    <cfRule type="expression" dxfId="24" priority="45">
       <formula>$G61+$H61&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q69:S69">
-    <cfRule type="expression" dxfId="26" priority="58">
+  <conditionalFormatting sqref="Q69:T69">
+    <cfRule type="expression" dxfId="23" priority="58">
       <formula>$F69="X"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="59" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="22" priority="59" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q69)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="60">
+    <cfRule type="expression" dxfId="21" priority="60">
       <formula>$G69+$H69&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q71:S71">
-    <cfRule type="expression" dxfId="23" priority="66">
+  <conditionalFormatting sqref="Q71:T71">
+    <cfRule type="expression" dxfId="20" priority="66">
       <formula>$G71+$H71&gt;=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="64">
+    <cfRule type="expression" dxfId="19" priority="64">
       <formula>$F71="X"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="65" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="18" priority="65" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q71)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q73:S73">
-    <cfRule type="containsText" dxfId="20" priority="71" operator="containsText" text="X">
+  <conditionalFormatting sqref="Q73:T73">
+    <cfRule type="containsText" dxfId="17" priority="71" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q73)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="70">
+    <cfRule type="expression" dxfId="16" priority="70">
       <formula>$F73="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="72">
+    <cfRule type="expression" dxfId="15" priority="72">
       <formula>$G73+$H73&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q75:S78">
-    <cfRule type="containsText" dxfId="17" priority="77" operator="containsText" text="X">
+  <conditionalFormatting sqref="Q75:T78">
+    <cfRule type="containsText" dxfId="14" priority="77" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q75)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="76">
+    <cfRule type="expression" dxfId="13" priority="76">
       <formula>$F75="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="78">
+    <cfRule type="expression" dxfId="12" priority="78">
       <formula>$G75+$H75&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q81:S81">
-    <cfRule type="expression" dxfId="14" priority="84">
+  <conditionalFormatting sqref="Q81:T81">
+    <cfRule type="expression" dxfId="11" priority="84">
       <formula>$G81+$H81&gt;=6</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="83" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="10" priority="83" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q81)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="82">
+    <cfRule type="expression" dxfId="9" priority="82">
       <formula>$F81="X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q85:S85">
-    <cfRule type="expression" dxfId="11" priority="90">
+  <conditionalFormatting sqref="Q85:T85">
+    <cfRule type="expression" dxfId="8" priority="90">
       <formula>$G85+$H85&gt;=6</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="89" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="7" priority="89" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q85)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="88">
+    <cfRule type="expression" dxfId="6" priority="88">
       <formula>$F85="X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q87:S88">
-    <cfRule type="expression" dxfId="8" priority="96">
+  <conditionalFormatting sqref="Q87:T88">
+    <cfRule type="expression" dxfId="5" priority="96">
       <formula>$G87+$H87&gt;=6</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="95" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="4" priority="95" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q87)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="94">
+    <cfRule type="expression" dxfId="3" priority="94">
       <formula>$F87="X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q91:S91">
-    <cfRule type="expression" dxfId="5" priority="102">
+  <conditionalFormatting sqref="Q91:T91">
+    <cfRule type="expression" dxfId="2" priority="102">
       <formula>$G91+$H91&gt;=6</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="101" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="1" priority="101" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q91)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
+    <cfRule type="expression" dxfId="0" priority="100">
       <formula>$F91="X"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/●회계/동아리원 회비.xlsx
+++ b/●회계/동아리원 회비.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kyungheeUNIV\●회계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4F230B-C341-41F6-984A-7D58681A65EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E150A712-6B5F-4457-B88F-9083625324E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U106" sqref="U106"/>
+    <sheetView tabSelected="1" topLeftCell="K37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6569,9 +6569,6 @@
       <c r="P93" s="22">
         <v>1</v>
       </c>
-      <c r="Q93">
-        <v>10000</v>
-      </c>
       <c r="R93">
         <v>10000</v>
       </c>
@@ -6622,9 +6619,6 @@
       <c r="P94" s="16">
         <v>1</v>
       </c>
-      <c r="Q94">
-        <v>10000</v>
-      </c>
       <c r="R94">
         <v>10000</v>
       </c>
@@ -6675,9 +6669,6 @@
       <c r="P95" s="16">
         <v>1</v>
       </c>
-      <c r="Q95">
-        <v>10000</v>
-      </c>
       <c r="R95">
         <v>10000</v>
       </c>
@@ -6728,9 +6719,6 @@
       <c r="P96" s="16">
         <v>1</v>
       </c>
-      <c r="Q96">
-        <v>10000</v>
-      </c>
       <c r="R96">
         <v>10000</v>
       </c>
@@ -6781,9 +6769,6 @@
       <c r="P97" s="16">
         <v>1</v>
       </c>
-      <c r="Q97">
-        <v>10000</v>
-      </c>
       <c r="R97">
         <v>10000</v>
       </c>
@@ -6834,9 +6819,6 @@
       <c r="P98" s="16">
         <v>1</v>
       </c>
-      <c r="Q98">
-        <v>10000</v>
-      </c>
       <c r="R98">
         <v>10000</v>
       </c>
@@ -6887,9 +6869,6 @@
       <c r="P99" s="16">
         <v>1</v>
       </c>
-      <c r="Q99">
-        <v>10000</v>
-      </c>
       <c r="R99">
         <v>10000</v>
       </c>
@@ -6940,9 +6919,6 @@
       <c r="P100" s="16">
         <v>1</v>
       </c>
-      <c r="Q100">
-        <v>10000</v>
-      </c>
       <c r="R100">
         <v>10000</v>
       </c>
@@ -6993,9 +6969,6 @@
       <c r="P101" s="16">
         <v>1</v>
       </c>
-      <c r="Q101">
-        <v>10000</v>
-      </c>
       <c r="R101">
         <v>10000</v>
       </c>
@@ -7046,9 +7019,6 @@
       <c r="P102" s="16">
         <v>1</v>
       </c>
-      <c r="Q102">
-        <v>10000</v>
-      </c>
       <c r="R102">
         <v>10000</v>
       </c>
@@ -7099,9 +7069,6 @@
       <c r="P103" s="16">
         <v>1</v>
       </c>
-      <c r="Q103">
-        <v>10000</v>
-      </c>
       <c r="R103">
         <v>10000</v>
       </c>
@@ -7152,9 +7119,6 @@
       <c r="P104" s="16">
         <v>1</v>
       </c>
-      <c r="Q104">
-        <v>10000</v>
-      </c>
       <c r="R104">
         <v>10000</v>
       </c>
@@ -7205,9 +7169,6 @@
       <c r="P105" s="16">
         <v>1</v>
       </c>
-      <c r="Q105">
-        <v>10000</v>
-      </c>
       <c r="R105">
         <v>10000</v>
       </c>
@@ -7258,9 +7219,6 @@
       <c r="P106" s="16">
         <v>1</v>
       </c>
-      <c r="Q106">
-        <v>10000</v>
-      </c>
       <c r="R106">
         <v>10000</v>
       </c>
@@ -7311,9 +7269,6 @@
       <c r="P107" s="16">
         <v>1</v>
       </c>
-      <c r="Q107">
-        <v>10000</v>
-      </c>
       <c r="R107">
         <v>10000</v>
       </c>
@@ -7364,9 +7319,6 @@
       <c r="P108" s="16">
         <v>1</v>
       </c>
-      <c r="Q108">
-        <v>10000</v>
-      </c>
       <c r="R108">
         <v>10000</v>
       </c>
@@ -7417,9 +7369,6 @@
       <c r="P109" s="21">
         <v>1</v>
       </c>
-      <c r="Q109">
-        <v>10000</v>
-      </c>
       <c r="R109">
         <v>10000</v>
       </c>
@@ -7459,7 +7408,7 @@
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q111">
         <f>SUM(Q2:Q110)</f>
-        <v>730000</v>
+        <v>560000</v>
       </c>
       <c r="R111">
         <f t="shared" ref="R111:T111" si="0">SUM(R2:R110)</f>
